--- a/Web前端技术/1.xlsx
+++ b/Web前端技术/1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\Web前端技术\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BE6265-0CBE-4D96-82C3-6DD105BE938C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A36B10-9579-4083-895C-6EB5DDFD5C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="173">
   <si>
     <t>题型</t>
   </si>
@@ -440,15 +440,6 @@
   </si>
   <si>
     <t>['A&lt;li&gt;','B&lt;select&gt;','C&lt;option&gt;','D&lt;optgroup&gt;']</t>
-  </si>
-  <si>
-    <t>下面这两行代码的功能是()</t>
-  </si>
-  <si>
-    <t>href="javascript:history.back()"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>1&lt;a</t>
   </si>
   <si>
     <t>以下()不是元信息meta标记的属性。</t>
@@ -921,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,10 +1627,10 @@
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -1706,7 +1697,7 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
         <v>100</v>
@@ -1986,10 +1977,10 @@
         <v>140</v>
       </c>
       <c r="C89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" t="s">
         <v>141</v>
-      </c>
-      <c r="D89" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -1997,13 +1988,13 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" t="s">
         <v>143</v>
-      </c>
-      <c r="C90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
@@ -2011,13 +2002,13 @@
         <v>86</v>
       </c>
       <c r="B91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" t="s">
         <v>145</v>
-      </c>
-      <c r="C91" t="s">
-        <v>90</v>
-      </c>
-      <c r="D91" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -2025,13 +2016,13 @@
         <v>86</v>
       </c>
       <c r="B92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" t="s">
         <v>147</v>
-      </c>
-      <c r="C92" t="s">
-        <v>102</v>
-      </c>
-      <c r="D92" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -2039,13 +2030,13 @@
         <v>86</v>
       </c>
       <c r="B93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" t="s">
         <v>149</v>
-      </c>
-      <c r="C93" t="s">
-        <v>88</v>
-      </c>
-      <c r="D93" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -2053,13 +2044,13 @@
         <v>86</v>
       </c>
       <c r="B94" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" t="s">
         <v>151</v>
-      </c>
-      <c r="C94" t="s">
-        <v>102</v>
-      </c>
-      <c r="D94" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -2067,13 +2058,13 @@
         <v>86</v>
       </c>
       <c r="B95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" t="s">
         <v>153</v>
-      </c>
-      <c r="C95" t="s">
-        <v>88</v>
-      </c>
-      <c r="D95" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -2081,13 +2072,13 @@
         <v>86</v>
       </c>
       <c r="B96" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" t="s">
         <v>155</v>
-      </c>
-      <c r="C96" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -2095,13 +2086,13 @@
         <v>86</v>
       </c>
       <c r="B97" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" t="s">
         <v>157</v>
-      </c>
-      <c r="C97" t="s">
-        <v>88</v>
-      </c>
-      <c r="D97" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -2109,13 +2100,13 @@
         <v>86</v>
       </c>
       <c r="B98" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" t="s">
         <v>159</v>
-      </c>
-      <c r="C98" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -2123,13 +2114,13 @@
         <v>86</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s">
         <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -2137,13 +2128,13 @@
         <v>86</v>
       </c>
       <c r="B100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" t="s">
         <v>163</v>
-      </c>
-      <c r="C100" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -2151,13 +2142,13 @@
         <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
         <v>90</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -2165,13 +2156,13 @@
         <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
         <v>90</v>
       </c>
       <c r="D102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
@@ -2179,27 +2170,13 @@
         <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
         <v>90</v>
       </c>
       <c r="D103" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>86</v>
-      </c>
-      <c r="B104" t="s">
-        <v>171</v>
-      </c>
-      <c r="C104" t="s">
-        <v>90</v>
-      </c>
-      <c r="D104" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Web前端技术/1.xlsx
+++ b/Web前端技术/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\Web前端技术\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A36B10-9579-4083-895C-6EB5DDFD5C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B73CB4-C392-45AE-AD57-7FA1D0E09000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="174">
   <si>
     <t>题型</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>colspan=5</t>
-  </si>
-  <si>
-    <t>在HTML文档中,常用的列表有()、()和定义列表。unorderedlist|ordered</t>
   </si>
   <si>
     <t>list</t>
@@ -541,6 +538,14 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在HTML文档中,常用的列表有()、()和定义列表。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unorderedlist|orderedlist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -914,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1503,10 +1508,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -1514,10 +1519,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
         <v>67</v>
-      </c>
-      <c r="C54" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -1525,10 +1530,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
         <v>69</v>
-      </c>
-      <c r="C55" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -1536,10 +1541,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
         <v>71</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -1547,10 +1552,10 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
         <v>73</v>
-      </c>
-      <c r="C57" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -1558,10 +1563,10 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
         <v>75</v>
-      </c>
-      <c r="C58" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -1569,10 +1574,10 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -1580,10 +1585,10 @@
         <v>52</v>
       </c>
       <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
         <v>78</v>
-      </c>
-      <c r="C60" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -1591,10 +1596,10 @@
         <v>52</v>
       </c>
       <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
         <v>80</v>
-      </c>
-      <c r="C61" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -1602,10 +1607,10 @@
         <v>52</v>
       </c>
       <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
         <v>82</v>
-      </c>
-      <c r="C62" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -1613,570 +1618,570 @@
         <v>52</v>
       </c>
       <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
         <v>84</v>
-      </c>
-      <c r="C63" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
         <v>86</v>
       </c>
-      <c r="B64" t="s">
-        <v>87</v>
-      </c>
       <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" t="s">
         <v>170</v>
-      </c>
-      <c r="D64" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" t="s">
         <v>89</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>90</v>
-      </c>
-      <c r="D65" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" t="s">
         <v>92</v>
-      </c>
-      <c r="C66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" t="s">
         <v>94</v>
-      </c>
-      <c r="C67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
         <v>96</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>97</v>
-      </c>
-      <c r="D68" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" t="s">
         <v>99</v>
-      </c>
-      <c r="C69" t="s">
-        <v>172</v>
-      </c>
-      <c r="D69" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" t="s">
         <v>101</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>102</v>
-      </c>
-      <c r="D70" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" t="s">
         <v>104</v>
-      </c>
-      <c r="C71" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" t="s">
         <v>106</v>
-      </c>
-      <c r="C72" t="s">
-        <v>102</v>
-      </c>
-      <c r="D72" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" t="s">
         <v>108</v>
-      </c>
-      <c r="C73" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" t="s">
         <v>110</v>
-      </c>
-      <c r="C74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" t="s">
         <v>112</v>
-      </c>
-      <c r="C75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" t="s">
         <v>114</v>
-      </c>
-      <c r="C76" t="s">
-        <v>88</v>
-      </c>
-      <c r="D76" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" t="s">
         <v>116</v>
-      </c>
-      <c r="C77" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" t="s">
         <v>118</v>
-      </c>
-      <c r="C78" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" t="s">
         <v>120</v>
-      </c>
-      <c r="C79" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" t="s">
         <v>122</v>
-      </c>
-      <c r="C80" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" t="s">
         <v>124</v>
-      </c>
-      <c r="C81" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" t="s">
         <v>126</v>
-      </c>
-      <c r="C82" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" t="s">
         <v>128</v>
-      </c>
-      <c r="C83" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" t="s">
         <v>130</v>
-      </c>
-      <c r="C84" t="s">
-        <v>102</v>
-      </c>
-      <c r="D84" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" t="s">
         <v>132</v>
-      </c>
-      <c r="C85" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" t="s">
         <v>134</v>
-      </c>
-      <c r="C86" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" t="s">
         <v>136</v>
-      </c>
-      <c r="C87" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" t="s">
         <v>138</v>
-      </c>
-      <c r="C88" t="s">
-        <v>102</v>
-      </c>
-      <c r="D88" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" t="s">
         <v>140</v>
-      </c>
-      <c r="C89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
         <v>142</v>
-      </c>
-      <c r="C90" t="s">
-        <v>90</v>
-      </c>
-      <c r="D90" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" t="s">
         <v>144</v>
-      </c>
-      <c r="C91" t="s">
-        <v>102</v>
-      </c>
-      <c r="D91" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" t="s">
         <v>146</v>
-      </c>
-      <c r="C92" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B93" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" t="s">
         <v>148</v>
-      </c>
-      <c r="C93" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" t="s">
         <v>150</v>
-      </c>
-      <c r="C94" t="s">
-        <v>88</v>
-      </c>
-      <c r="D94" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" t="s">
         <v>152</v>
-      </c>
-      <c r="C95" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
+        <v>87</v>
+      </c>
+      <c r="D96" t="s">
         <v>154</v>
-      </c>
-      <c r="C96" t="s">
-        <v>88</v>
-      </c>
-      <c r="D96" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97" t="s">
         <v>156</v>
-      </c>
-      <c r="C97" t="s">
-        <v>90</v>
-      </c>
-      <c r="D97" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" t="s">
         <v>158</v>
-      </c>
-      <c r="C98" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" t="s">
         <v>160</v>
-      </c>
-      <c r="C99" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" t="s">
         <v>162</v>
-      </c>
-      <c r="C100" t="s">
-        <v>90</v>
-      </c>
-      <c r="D100" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" t="s">
         <v>164</v>
-      </c>
-      <c r="C101" t="s">
-        <v>90</v>
-      </c>
-      <c r="D101" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
+        <v>165</v>
+      </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" t="s">
         <v>166</v>
-      </c>
-      <c r="C102" t="s">
-        <v>90</v>
-      </c>
-      <c r="D102" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103" t="s">
+        <v>167</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" t="s">
         <v>168</v>
-      </c>
-      <c r="C103" t="s">
-        <v>90</v>
-      </c>
-      <c r="D103" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
